--- a/download/IEC-Au-Ag_protocol.xlsx
+++ b/download/IEC-Au-Ag_protocol.xlsx
@@ -625,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1355,7 +1355,7 @@
 &amp;"-,Fett"&amp;K6E0D5FPreparation and ion exchange protocol for separating Pb and Cu from Au-Ag matrices according to Bendall 2003</oddHeader>
     <oddFooter>&amp;L&amp;K6E0D5FCreated by Sabine Klein, Thomas Rose
 Last updated: &amp;D&amp;C&amp;9This work is licensed under a Creative Commons 
-Attribution 4.0 International License.&amp;R&amp;G</oddFooter>
+Attribution-ShareAlike 4.0 International License.&amp;R&amp;G</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
